--- a/GUTIERREZ, RENCELLE LALAINE ANGCAYA.xlsx
+++ b/GUTIERREZ, RENCELLE LALAINE ANGCAYA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0807A3B-1E70-47FA-82A6-DA96445A33D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>PERIOD</t>
   </si>
@@ -189,12 +188,21 @@
   </si>
   <si>
     <t>SL EARNED</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>ML(105-0-0)</t>
+  </si>
+  <si>
+    <t>7/6/2023 - 10/18/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -535,6 +543,21 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -565,22 +588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -815,7 +823,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -861,25 +868,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K63" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K64" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1186,99 +1193,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K63"/>
+  <dimension ref="A2:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A10" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="3570" topLeftCell="A22" activePane="bottomLeft"/>
+      <selection activeCell="M11" sqref="M11"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="34" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="43"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="23" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="12"/>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="27"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="49">
+      <c r="F3" s="54">
         <v>44378</v>
       </c>
-      <c r="G3" s="44"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="28" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="28"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="28" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="28"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="45"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="4"/>
       <c r="C5" s="32"/>
@@ -1293,7 +1300,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="9"/>
       <c r="C6" s="33"/>
@@ -1306,24 +1313,24 @@
       <c r="J6" s="9"/>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="26" t="s">
         <v>23</v>
@@ -1367,7 +1374,7 @@
       <c r="D9" s="13"/>
       <c r="E9" s="15">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="15" t="str">
@@ -1377,12 +1384,12 @@
       <c r="H9" s="13"/>
       <c r="I9" s="15">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>36</v>
       </c>
@@ -1404,7 +1411,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>44378</v>
       </c>
@@ -1424,7 +1431,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>44409</v>
       </c>
@@ -1444,7 +1451,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>44440</v>
       </c>
@@ -1464,7 +1471,7 @@
       <c r="J13" s="13"/>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>44470</v>
       </c>
@@ -1484,7 +1491,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>44501</v>
       </c>
@@ -1504,7 +1511,7 @@
       <c r="J15" s="13"/>
       <c r="K15" s="22"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>44531</v>
       </c>
@@ -1524,7 +1531,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="22"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>37</v>
       </c>
@@ -1542,7 +1549,7 @@
       <c r="J17" s="13"/>
       <c r="K17" s="22"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>44562</v>
       </c>
@@ -1562,7 +1569,7 @@
       <c r="J18" s="13"/>
       <c r="K18" s="22"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <f>EDATE(A18,1)</f>
         <v>44593</v>
@@ -1583,7 +1590,7 @@
       <c r="J19" s="13"/>
       <c r="K19" s="22"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <f t="shared" ref="A20:A24" si="0">EDATE(A19,1)</f>
         <v>44621</v>
@@ -1604,7 +1611,7 @@
       <c r="J20" s="13"/>
       <c r="K20" s="22"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <f t="shared" si="0"/>
         <v>44652</v>
@@ -1625,7 +1632,7 @@
       <c r="J21" s="13"/>
       <c r="K21" s="22"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <f t="shared" si="0"/>
         <v>44682</v>
@@ -1646,7 +1653,7 @@
       <c r="J22" s="13"/>
       <c r="K22" s="22"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -1667,7 +1674,7 @@
       <c r="J23" s="14"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -1692,7 +1699,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="13"/>
       <c r="C25" s="15">
@@ -1710,7 +1717,7 @@
       <c r="J25" s="13"/>
       <c r="K25" s="22"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>44774</v>
       </c>
@@ -1730,7 +1737,7 @@
       <c r="J26" s="13"/>
       <c r="K26" s="22"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>44805</v>
       </c>
@@ -1750,7 +1757,7 @@
       <c r="J27" s="13"/>
       <c r="K27" s="22"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>44835</v>
       </c>
@@ -1770,40 +1777,50 @@
       <c r="J28" s="13"/>
       <c r="K28" s="22"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
+        <v>44866</v>
+      </c>
       <c r="B29" s="13"/>
-      <c r="C29" s="15"/>
+      <c r="C29" s="15">
+        <v>1.25</v>
+      </c>
       <c r="D29" s="13"/>
       <c r="E29" s="10"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="15" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G29" s="15">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="10"/>
       <c r="J29" s="13"/>
       <c r="K29" s="22"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
+        <v>44896</v>
+      </c>
       <c r="B30" s="13"/>
-      <c r="C30" s="15"/>
+      <c r="C30" s="15">
+        <v>1.25</v>
+      </c>
       <c r="D30" s="13"/>
       <c r="E30" s="10"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="15" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G30" s="15">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="10"/>
       <c r="J30" s="13"/>
       <c r="K30" s="22"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="41" t="s">
+        <v>49</v>
+      </c>
       <c r="B31" s="13"/>
       <c r="C31" s="15"/>
       <c r="D31" s="13"/>
@@ -1818,105 +1835,133 @@
       <c r="J31" s="13"/>
       <c r="K31" s="22"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="25">
+        <v>44927</v>
+      </c>
       <c r="B32" s="13"/>
-      <c r="C32" s="15"/>
+      <c r="C32" s="15">
+        <v>1.25</v>
+      </c>
       <c r="D32" s="13"/>
       <c r="E32" s="10"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="15" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G32" s="15">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="10"/>
       <c r="J32" s="13"/>
       <c r="K32" s="22"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="25">
+        <v>44958</v>
+      </c>
       <c r="B33" s="13"/>
-      <c r="C33" s="15"/>
+      <c r="C33" s="15">
+        <v>1.25</v>
+      </c>
       <c r="D33" s="13"/>
       <c r="E33" s="10"/>
       <c r="F33" s="13"/>
-      <c r="G33" s="15" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G33" s="15">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="10"/>
       <c r="J33" s="13"/>
       <c r="K33" s="22"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="25">
+        <v>44986</v>
+      </c>
       <c r="B34" s="13"/>
-      <c r="C34" s="15"/>
+      <c r="C34" s="15">
+        <v>1.25</v>
+      </c>
       <c r="D34" s="13"/>
       <c r="E34" s="10"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="15" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G34" s="15">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="10"/>
       <c r="J34" s="13"/>
       <c r="K34" s="22"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="25">
+        <v>45017</v>
+      </c>
       <c r="B35" s="13"/>
-      <c r="C35" s="15"/>
+      <c r="C35" s="15">
+        <v>1.25</v>
+      </c>
       <c r="D35" s="13"/>
       <c r="E35" s="10"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="15" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G35" s="15">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="10"/>
       <c r="J35" s="13"/>
       <c r="K35" s="22"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="25">
+        <v>45047</v>
+      </c>
       <c r="B36" s="13"/>
-      <c r="C36" s="15"/>
+      <c r="C36" s="15">
+        <v>1.25</v>
+      </c>
       <c r="D36" s="13"/>
       <c r="E36" s="10"/>
       <c r="F36" s="13"/>
-      <c r="G36" s="15" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G36" s="15">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="10"/>
       <c r="J36" s="13"/>
       <c r="K36" s="22"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="25">
+        <v>45078</v>
+      </c>
       <c r="B37" s="13"/>
-      <c r="C37" s="15"/>
+      <c r="C37" s="15">
+        <v>1.25</v>
+      </c>
       <c r="D37" s="13"/>
       <c r="E37" s="10"/>
       <c r="F37" s="13"/>
-      <c r="G37" s="15" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G37" s="15">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="10"/>
       <c r="J37" s="13"/>
       <c r="K37" s="22"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
-      <c r="B38" s="13"/>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="25">
+        <v>45108</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="C38" s="15"/>
       <c r="D38" s="13"/>
       <c r="E38" s="10"/>
@@ -1928,10 +1973,14 @@
       <c r="H38" s="13"/>
       <c r="I38" s="10"/>
       <c r="J38" s="13"/>
-      <c r="K38" s="22"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
+      <c r="K38" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="25">
+        <v>45139</v>
+      </c>
       <c r="B39" s="13"/>
       <c r="C39" s="15"/>
       <c r="D39" s="13"/>
@@ -1946,8 +1995,10 @@
       <c r="J39" s="13"/>
       <c r="K39" s="22"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="25">
+        <v>45170</v>
+      </c>
       <c r="B40" s="13"/>
       <c r="C40" s="15"/>
       <c r="D40" s="13"/>
@@ -1962,8 +2013,10 @@
       <c r="J40" s="13"/>
       <c r="K40" s="22"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="25">
+        <v>45200</v>
+      </c>
       <c r="B41" s="13"/>
       <c r="C41" s="15"/>
       <c r="D41" s="13"/>
@@ -1978,8 +2031,10 @@
       <c r="J41" s="13"/>
       <c r="K41" s="22"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="25">
+        <v>45231</v>
+      </c>
       <c r="B42" s="13"/>
       <c r="C42" s="15"/>
       <c r="D42" s="13"/>
@@ -1994,8 +2049,10 @@
       <c r="J42" s="13"/>
       <c r="K42" s="22"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="25"/>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="25">
+        <v>45261</v>
+      </c>
       <c r="B43" s="13"/>
       <c r="C43" s="15"/>
       <c r="D43" s="13"/>
@@ -2010,8 +2067,10 @@
       <c r="J43" s="13"/>
       <c r="K43" s="22"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="25">
+        <v>45292</v>
+      </c>
       <c r="B44" s="13"/>
       <c r="C44" s="15"/>
       <c r="D44" s="13"/>
@@ -2026,8 +2085,10 @@
       <c r="J44" s="13"/>
       <c r="K44" s="22"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="25">
+        <v>45323</v>
+      </c>
       <c r="B45" s="13"/>
       <c r="C45" s="15"/>
       <c r="D45" s="13"/>
@@ -2042,8 +2103,10 @@
       <c r="J45" s="13"/>
       <c r="K45" s="22"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="25"/>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="25">
+        <v>45352</v>
+      </c>
       <c r="B46" s="13"/>
       <c r="C46" s="15"/>
       <c r="D46" s="13"/>
@@ -2058,24 +2121,28 @@
       <c r="J46" s="13"/>
       <c r="K46" s="22"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
-      <c r="B47" s="14"/>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="25">
+        <v>45383</v>
+      </c>
+      <c r="B47" s="13"/>
       <c r="C47" s="15"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="14"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="13"/>
       <c r="G47" s="15" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H47" s="14"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="17"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="25"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="22"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="25">
+        <v>45413</v>
+      </c>
       <c r="B48" s="14"/>
       <c r="C48" s="15"/>
       <c r="D48" s="14"/>
@@ -2085,13 +2152,15 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="22"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="17"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="25">
+        <v>45444</v>
+      </c>
       <c r="B49" s="14"/>
       <c r="C49" s="15"/>
       <c r="D49" s="14"/>
@@ -2106,7 +2175,7 @@
       <c r="J49" s="13"/>
       <c r="K49" s="22"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="14"/>
       <c r="C50" s="15"/>
@@ -2122,7 +2191,7 @@
       <c r="J50" s="13"/>
       <c r="K50" s="22"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="B51" s="14"/>
       <c r="C51" s="15"/>
@@ -2138,7 +2207,7 @@
       <c r="J51" s="13"/>
       <c r="K51" s="22"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
       <c r="B52" s="14"/>
       <c r="C52" s="15"/>
@@ -2154,7 +2223,7 @@
       <c r="J52" s="13"/>
       <c r="K52" s="22"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
       <c r="B53" s="14"/>
       <c r="C53" s="15"/>
@@ -2170,7 +2239,7 @@
       <c r="J53" s="13"/>
       <c r="K53" s="22"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
       <c r="B54" s="14"/>
       <c r="C54" s="15"/>
@@ -2186,7 +2255,7 @@
       <c r="J54" s="13"/>
       <c r="K54" s="22"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
       <c r="B55" s="14"/>
       <c r="C55" s="15"/>
@@ -2202,7 +2271,7 @@
       <c r="J55" s="13"/>
       <c r="K55" s="22"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
       <c r="B56" s="14"/>
       <c r="C56" s="15"/>
@@ -2218,7 +2287,7 @@
       <c r="J56" s="13"/>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
       <c r="B57" s="14"/>
       <c r="C57" s="15"/>
@@ -2234,7 +2303,7 @@
       <c r="J57" s="13"/>
       <c r="K57" s="22"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
       <c r="B58" s="14"/>
       <c r="C58" s="15"/>
@@ -2245,28 +2314,28 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H58" s="14"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="17"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H58" s="13"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="22"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
-      <c r="B59" s="13"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="15"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="13"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="14"/>
       <c r="G59" s="15" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H59" s="13"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="22"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H59" s="14"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="17"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
       <c r="B60" s="13"/>
       <c r="C60" s="15"/>
@@ -2282,7 +2351,7 @@
       <c r="J60" s="13"/>
       <c r="K60" s="22"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
       <c r="B61" s="13"/>
       <c r="C61" s="15"/>
@@ -2298,7 +2367,7 @@
       <c r="J61" s="13"/>
       <c r="K61" s="22"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
       <c r="B62" s="13"/>
       <c r="C62" s="15"/>
@@ -2314,21 +2383,37 @@
       <c r="J62" s="13"/>
       <c r="K62" s="22"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
-      <c r="B63" s="14"/>
+      <c r="B63" s="13"/>
       <c r="C63" s="15"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="14"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="13"/>
       <c r="G63" s="15" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H63" s="14"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="17"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="22"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="25"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="15" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H64" s="14"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2345,15 +2430,15 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -2371,41 +2456,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6DF311-E85D-4C54-A4E0-780068B65759}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="39" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="39" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="50" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="J1" s="51" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="J1" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>24</v>
       </c>
@@ -2430,11 +2515,11 @@
       <c r="K2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="L2" s="42" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
       <c r="D3" s="13"/>
@@ -2444,17 +2529,17 @@
         <f>SUM(D3,E4,F4)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54">
+      <c r="J3" s="43"/>
+      <c r="K3" s="44">
         <f>J4-1</f>
         <v>-1</v>
       </c>
-      <c r="L3" s="55" t="str">
+      <c r="L3" s="45" t="str">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="str">
         <f>IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2))</f>
         <v/>
@@ -2469,10 +2554,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -2485,14 +2570,14 @@
       <c r="F6" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="39">
         <v>1</v>
       </c>
@@ -2518,7 +2603,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="39">
         <v>2</v>
       </c>
@@ -2537,14 +2622,14 @@
       <c r="J8" s="37">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="K8" s="57">
+      <c r="K8" s="46">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="L8" s="57">
+      <c r="L8" s="46">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="39">
         <v>3</v>
       </c>
@@ -2563,14 +2648,14 @@
       <c r="J9" s="37">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="K9" s="57">
+      <c r="K9" s="46">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="L9" s="57">
+      <c r="L9" s="46">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="39">
         <v>4</v>
       </c>
@@ -2589,14 +2674,14 @@
       <c r="J10" s="37">
         <v>0.125</v>
       </c>
-      <c r="K10" s="57">
+      <c r="K10" s="46">
         <v>0.125</v>
       </c>
-      <c r="L10" s="57">
+      <c r="L10" s="46">
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="39">
         <v>5</v>
       </c>
@@ -2615,14 +2700,14 @@
       <c r="J11" s="37">
         <v>0.16700000000000001</v>
       </c>
-      <c r="K11" s="57">
+      <c r="K11" s="46">
         <v>0.16700000000000001</v>
       </c>
-      <c r="L11" s="57">
+      <c r="L11" s="46">
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="39">
         <v>6</v>
       </c>
@@ -2641,14 +2726,14 @@
       <c r="J12" s="37">
         <v>0.20800000000000002</v>
       </c>
-      <c r="K12" s="57">
+      <c r="K12" s="46">
         <v>0.20800000000000002</v>
       </c>
-      <c r="L12" s="57">
+      <c r="L12" s="46">
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="39">
         <v>7</v>
       </c>
@@ -2667,14 +2752,14 @@
       <c r="J13" s="37">
         <v>0.25</v>
       </c>
-      <c r="K13" s="57">
+      <c r="K13" s="46">
         <v>0.25</v>
       </c>
-      <c r="L13" s="57">
+      <c r="L13" s="46">
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="39">
         <v>8</v>
       </c>
@@ -2693,14 +2778,14 @@
       <c r="J14" s="37">
         <v>0.29199999999999998</v>
       </c>
-      <c r="K14" s="57">
+      <c r="K14" s="46">
         <v>0.29199999999999998</v>
       </c>
-      <c r="L14" s="57">
+      <c r="L14" s="46">
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="39">
         <v>9</v>
       </c>
@@ -2713,14 +2798,14 @@
       <c r="J15" s="37">
         <v>0.33299999999999996</v>
       </c>
-      <c r="K15" s="57">
+      <c r="K15" s="46">
         <v>0.33299999999999996</v>
       </c>
-      <c r="L15" s="57">
+      <c r="L15" s="46">
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="39">
         <v>10</v>
       </c>
@@ -2733,14 +2818,14 @@
       <c r="J16" s="37">
         <v>0.37499999999999994</v>
       </c>
-      <c r="K16" s="57">
+      <c r="K16" s="46">
         <v>0.37499999999999994</v>
       </c>
-      <c r="L16" s="57">
+      <c r="L16" s="46">
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="39">
         <v>11</v>
       </c>
@@ -2753,14 +2838,14 @@
       <c r="J17" s="37">
         <v>0.41699999999999993</v>
       </c>
-      <c r="K17" s="57">
+      <c r="K17" s="46">
         <v>0.41699999999999993</v>
       </c>
-      <c r="L17" s="57">
+      <c r="L17" s="46">
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="39">
         <v>12</v>
       </c>
@@ -2774,14 +2859,14 @@
       <c r="J18" s="37">
         <v>0.45799999999999991</v>
       </c>
-      <c r="K18" s="57">
+      <c r="K18" s="46">
         <v>0.45799999999999991</v>
       </c>
-      <c r="L18" s="57">
+      <c r="L18" s="46">
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="39">
         <v>13</v>
       </c>
@@ -2795,14 +2880,14 @@
       <c r="J19" s="37">
         <v>0.49999999999999989</v>
       </c>
-      <c r="K19" s="57">
+      <c r="K19" s="46">
         <v>0.49999999999999989</v>
       </c>
-      <c r="L19" s="57">
+      <c r="L19" s="46">
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="39">
         <v>14</v>
       </c>
@@ -2816,14 +2901,14 @@
       <c r="J20" s="37">
         <v>0.54199999999999993</v>
       </c>
-      <c r="K20" s="57">
+      <c r="K20" s="46">
         <v>0.54199999999999993</v>
       </c>
-      <c r="L20" s="57">
+      <c r="L20" s="46">
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="39">
         <v>15</v>
       </c>
@@ -2837,14 +2922,14 @@
       <c r="J21" s="37">
         <v>0.58299999999999996</v>
       </c>
-      <c r="K21" s="57">
+      <c r="K21" s="46">
         <v>0.58299999999999996</v>
       </c>
-      <c r="L21" s="57">
+      <c r="L21" s="46">
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="39">
         <v>16</v>
       </c>
@@ -2858,14 +2943,14 @@
       <c r="J22" s="37">
         <v>0.625</v>
       </c>
-      <c r="K22" s="57">
+      <c r="K22" s="46">
         <v>0.625</v>
       </c>
-      <c r="L22" s="57">
+      <c r="L22" s="46">
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="39">
         <v>17</v>
       </c>
@@ -2879,14 +2964,14 @@
       <c r="J23" s="37">
         <v>0.66700000000000004</v>
       </c>
-      <c r="K23" s="57">
+      <c r="K23" s="46">
         <v>0.66700000000000004</v>
       </c>
-      <c r="L23" s="57">
+      <c r="L23" s="46">
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="39">
         <v>18</v>
       </c>
@@ -2900,14 +2985,14 @@
       <c r="J24" s="37">
         <v>0.70800000000000007</v>
       </c>
-      <c r="K24" s="57">
+      <c r="K24" s="46">
         <v>0.70800000000000007</v>
       </c>
-      <c r="L24" s="57">
+      <c r="L24" s="46">
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="39">
         <v>19</v>
       </c>
@@ -2921,14 +3006,14 @@
       <c r="J25" s="37">
         <v>0.75000000000000011</v>
       </c>
-      <c r="K25" s="57">
+      <c r="K25" s="46">
         <v>0.75000000000000011</v>
       </c>
-      <c r="L25" s="57">
+      <c r="L25" s="46">
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="39">
         <v>20</v>
       </c>
@@ -2942,14 +3027,14 @@
       <c r="J26" s="37">
         <v>0.79200000000000015</v>
       </c>
-      <c r="K26" s="57">
+      <c r="K26" s="46">
         <v>0.79200000000000015</v>
       </c>
-      <c r="L26" s="57">
+      <c r="L26" s="46">
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="39">
         <v>21</v>
       </c>
@@ -2963,14 +3048,14 @@
       <c r="J27" s="37">
         <v>0.83300000000000018</v>
       </c>
-      <c r="K27" s="57">
+      <c r="K27" s="46">
         <v>0.83300000000000018</v>
       </c>
-      <c r="L27" s="57">
+      <c r="L27" s="46">
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="39">
         <v>22</v>
       </c>
@@ -2984,14 +3069,14 @@
       <c r="J28" s="37">
         <v>0.87500000000000022</v>
       </c>
-      <c r="K28" s="57">
+      <c r="K28" s="46">
         <v>0.87500000000000022</v>
       </c>
-      <c r="L28" s="57">
+      <c r="L28" s="46">
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="39">
         <v>23</v>
       </c>
@@ -3005,14 +3090,14 @@
       <c r="J29" s="37">
         <v>0.91700000000000026</v>
       </c>
-      <c r="K29" s="57">
+      <c r="K29" s="46">
         <v>0.91700000000000026</v>
       </c>
-      <c r="L29" s="57">
+      <c r="L29" s="46">
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="39">
         <v>24</v>
       </c>
@@ -3026,14 +3111,14 @@
       <c r="J30" s="37">
         <v>0.9580000000000003</v>
       </c>
-      <c r="K30" s="57">
+      <c r="K30" s="46">
         <v>0.9580000000000003</v>
       </c>
-      <c r="L30" s="57">
+      <c r="L30" s="46">
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="39">
         <v>25</v>
       </c>
@@ -3047,14 +3132,14 @@
       <c r="J31" s="37">
         <v>1.0000000000000002</v>
       </c>
-      <c r="K31" s="57">
+      <c r="K31" s="46">
         <v>1.0000000000000002</v>
       </c>
-      <c r="L31" s="57">
+      <c r="L31" s="46">
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="39">
         <v>26</v>
       </c>
@@ -3068,14 +3153,14 @@
       <c r="J32" s="37">
         <v>1.0420000000000003</v>
       </c>
-      <c r="K32" s="57">
+      <c r="K32" s="46">
         <v>1.0420000000000003</v>
       </c>
-      <c r="L32" s="57">
+      <c r="L32" s="46">
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="39">
         <v>27</v>
       </c>
@@ -3089,14 +3174,14 @@
       <c r="J33" s="37">
         <v>1.0830000000000002</v>
       </c>
-      <c r="K33" s="57">
+      <c r="K33" s="46">
         <v>1.0830000000000002</v>
       </c>
-      <c r="L33" s="57">
+      <c r="L33" s="46">
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="39">
         <v>28</v>
       </c>
@@ -3110,14 +3195,14 @@
       <c r="J34" s="37">
         <v>1.1250000000000002</v>
       </c>
-      <c r="K34" s="57">
+      <c r="K34" s="46">
         <v>1.1250000000000002</v>
       </c>
-      <c r="L34" s="57">
+      <c r="L34" s="46">
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="39">
         <v>29</v>
       </c>
@@ -3131,14 +3216,14 @@
       <c r="J35" s="37">
         <v>1.1670000000000003</v>
       </c>
-      <c r="K35" s="57">
+      <c r="K35" s="46">
         <v>1.1670000000000003</v>
       </c>
-      <c r="L35" s="57">
+      <c r="L35" s="46">
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="39">
         <v>30</v>
       </c>
@@ -3152,14 +3237,14 @@
       <c r="J36" s="37">
         <v>1.2080000000000002</v>
       </c>
-      <c r="K36" s="57">
+      <c r="K36" s="46">
         <v>1.2080000000000002</v>
       </c>
-      <c r="L36" s="57">
+      <c r="L36" s="46">
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="39">
         <v>31</v>
       </c>
@@ -3173,14 +3258,14 @@
       <c r="J37" s="37">
         <v>1.2500000000000002</v>
       </c>
-      <c r="K37" s="57">
+      <c r="K37" s="46">
         <v>1.2500000000000002</v>
       </c>
-      <c r="L37" s="57">
+      <c r="L37" s="46">
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="39">
         <v>32</v>
       </c>
@@ -3189,7 +3274,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="39">
         <v>33</v>
       </c>
@@ -3198,7 +3283,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="39">
         <v>34</v>
       </c>
@@ -3207,7 +3292,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="39">
         <v>35</v>
       </c>
@@ -3216,7 +3301,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="39">
         <v>36</v>
       </c>
@@ -3225,7 +3310,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="39">
         <v>37</v>
       </c>
@@ -3234,7 +3319,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="39">
         <v>38</v>
       </c>
@@ -3243,7 +3328,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="39">
         <v>39</v>
       </c>
@@ -3252,7 +3337,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="39">
         <v>40</v>
       </c>
@@ -3261,7 +3346,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="39">
         <v>41</v>
       </c>
@@ -3270,7 +3355,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="39">
         <v>42</v>
       </c>
@@ -3279,7 +3364,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="39">
         <v>43</v>
       </c>
@@ -3288,7 +3373,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="39">
         <v>44</v>
       </c>
@@ -3297,7 +3382,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="39">
         <v>45</v>
       </c>
@@ -3306,7 +3391,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="39">
         <v>46</v>
       </c>
@@ -3315,7 +3400,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="39">
         <v>47</v>
       </c>
@@ -3324,7 +3409,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="39">
         <v>48</v>
       </c>
@@ -3333,7 +3418,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="39">
         <v>49</v>
       </c>
@@ -3342,7 +3427,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="39">
         <v>50</v>
       </c>
@@ -3351,7 +3436,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="39">
         <v>51</v>
       </c>
@@ -3360,7 +3445,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="39">
         <v>52</v>
       </c>
@@ -3369,7 +3454,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="39">
         <v>53</v>
       </c>
@@ -3378,7 +3463,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="39">
         <v>54</v>
       </c>
@@ -3387,7 +3472,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="39">
         <v>55</v>
       </c>
@@ -3396,7 +3481,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="39">
         <v>56</v>
       </c>
@@ -3405,7 +3490,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="39">
         <v>57</v>
       </c>
@@ -3414,7 +3499,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="39">
         <v>58</v>
       </c>
@@ -3423,7 +3508,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="39">
         <v>59</v>
       </c>
@@ -3432,7 +3517,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="39">
         <v>60</v>
       </c>
@@ -3441,7 +3526,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/GUTIERREZ, RENCELLE LALAINE ANGCAYA.xlsx
+++ b/GUTIERREZ, RENCELLE LALAINE ANGCAYA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/GUTIERREZ, RENCELLE LALAINE ANGCAYA.xlsx
+++ b/GUTIERREZ, RENCELLE LALAINE ANGCAYA.xlsx
@@ -868,7 +868,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K64" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K63" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1197,12 +1197,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K64"/>
+  <dimension ref="A2:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A22" activePane="bottomLeft"/>
+      <pane ySplit="3600" topLeftCell="A51" activePane="bottomLeft"/>
       <selection activeCell="M11" sqref="M11"/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomLeft" activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2399,22 +2399,6 @@
       <c r="J63" s="13"/>
       <c r="K63" s="22"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="15" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H64" s="14"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="17"/>
-    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="G7:J7"/>
@@ -2429,7 +2413,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
@@ -2444,10 +2428,10 @@
 CITY OF TAGAYTAY
 EMPLOYEE'S LEAVE CARD</oddHeader>
     <oddFooter>&amp;L
-PREPARED BY: ___________________
+PREPARED BY: _____________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                             OIC- HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
